--- a/Database/Database_schema_Helperland.xlsx
+++ b/Database/Database_schema_Helperland.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="91">
   <si>
     <t xml:space="preserve">Field </t>
   </si>
@@ -198,16 +198,97 @@
     <t>Service_date</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>Service_time</t>
   </si>
   <si>
-    <t>Customer Service</t>
-  </si>
-  <si>
     <t>Customer_id</t>
+  </si>
+  <si>
+    <t>Not Null,FK from Customer</t>
+  </si>
+  <si>
+    <t>provider_id</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>FK from service provider</t>
+  </si>
+  <si>
+    <t>Service_pincode</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>service_status</t>
+  </si>
+  <si>
+    <t>Services_Request</t>
+  </si>
+  <si>
+    <t>Total_hours</t>
+  </si>
+  <si>
+    <t>extra_servcie</t>
+  </si>
+  <si>
+    <t>pets</t>
+  </si>
+  <si>
+    <t>Service List</t>
+  </si>
+  <si>
+    <t>FK from service_Request</t>
+  </si>
+  <si>
+    <t>service_id</t>
+  </si>
+  <si>
+    <t>FK from Service Provider</t>
+  </si>
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>FK from Customer</t>
+  </si>
+  <si>
+    <t>payment Details</t>
+  </si>
+  <si>
+    <t>Payment_id</t>
+  </si>
+  <si>
+    <t>Primary Key</t>
+  </si>
+  <si>
+    <t>card_number</t>
+  </si>
+  <si>
+    <t>prome_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Null </t>
+  </si>
+  <si>
+    <t>Service_Feedback</t>
+  </si>
+  <si>
+    <t>FK from Servcie_provider</t>
+  </si>
+  <si>
+    <t>ontime_arrival</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>friendly</t>
   </si>
 </sst>
 </file>
@@ -252,42 +333,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="9"/>
-      </right>
-      <top style="thin">
-        <color theme="9"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -313,27 +363,131 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -417,13 +571,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -454,7 +601,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="J3:L8" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="J3:L8" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="J3:L8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Field "/>
@@ -466,7 +613,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A19:C25" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A19:C25" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="A19:C25"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Field "/>
@@ -478,8 +625,56 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="E19:G28" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="E19:G28" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="E19:G28"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Field "/>
+    <tableColumn id="2" name="Field Type"/>
+    <tableColumn id="3" name="Field_Attribut"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="J19:L30" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="J19:L30"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Field "/>
+    <tableColumn id="2" name="Field Type"/>
+    <tableColumn id="3" name="Field_Attribut"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A35:C38" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="A35:C38"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Field "/>
+    <tableColumn id="2" name="Field Type"/>
+    <tableColumn id="3" name="Field_Attribut"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="E35:G39" totalsRowShown="0" tableBorderDxfId="2">
+  <autoFilter ref="E35:G39"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Field "/>
+    <tableColumn id="2" name="Field Type"/>
+    <tableColumn id="3" name="Field_Attribut"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="J35:L41" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="J35:L41"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Field "/>
     <tableColumn id="2" name="Field Type"/>
@@ -774,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -787,41 +982,41 @@
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.21875" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
     <col min="10" max="10" width="17.6640625" customWidth="1"/>
     <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" customWidth="1"/>
+    <col min="12" max="12" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="1" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" ht="16.8" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12" ht="23.4" customHeight="1">
       <c r="A3" t="s">
@@ -842,13 +1037,13 @@
       <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1047,80 +1242,80 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17.399999999999999" customHeight="1">
-      <c r="B14" s="3"/>
-      <c r="E14" s="7" t="s">
+      <c r="B14" s="2"/>
+      <c r="E14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="18" spans="1:12" ht="28.8">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="E18" s="1" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="E18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="J18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="J18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J19" s="4" t="s">
@@ -1179,20 +1374,20 @@
         <v>59</v>
       </c>
       <c r="K21" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="L21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="3"/>
       <c r="E22" t="s">
         <v>48</v>
       </c>
@@ -1200,23 +1395,23 @@
         <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="L22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7"/>
+      <c r="B23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3"/>
       <c r="E23" t="s">
         <v>49</v>
       </c>
@@ -1224,37 +1419,61 @@
         <v>10</v>
       </c>
       <c r="J23" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="K23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="3"/>
       <c r="E24" t="s">
         <v>50</v>
       </c>
       <c r="F24" t="s">
         <v>3</v>
       </c>
+      <c r="J24" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="7"/>
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3"/>
       <c r="E25" t="s">
         <v>51</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
+      </c>
+      <c r="J25" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" t="s">
+        <v>3</v>
+      </c>
+      <c r="L25" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1264,29 +1483,243 @@
       <c r="F26" t="s">
         <v>10</v>
       </c>
+      <c r="J26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="J27" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>5</v>
+      <c r="G28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" t="s">
+        <v>72</v>
+      </c>
+      <c r="K28" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="J29" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="J30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="28.8">
+      <c r="A34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="E34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="J34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" t="s">
+        <v>82</v>
+      </c>
+      <c r="J36" t="s">
+        <v>76</v>
+      </c>
+      <c r="K36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>79</v>
+      </c>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" t="s">
+        <v>3</v>
+      </c>
+      <c r="L37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" t="s">
+        <v>61</v>
+      </c>
+      <c r="K38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="E39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>85</v>
+      </c>
+      <c r="J39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="J40" t="s">
+        <v>89</v>
+      </c>
+      <c r="K40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="J41" t="s">
+        <v>90</v>
+      </c>
+      <c r="K41" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="J34:L34"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="J18:L18"/>
@@ -1296,12 +1729,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="5">
+  <tableParts count="9">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
